--- a/cicada_generator/lib/WHO/antigen/Rotavirus.xlsx
+++ b/cicada_generator/lib/WHO/antigen/Rotavirus.xlsx
@@ -4,8 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="2-dose series" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="3-dose series" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="2-dose series (RV1)" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="3-dose series (RV5)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="34">
   <si>
     <t xml:space="preserve">Series Name</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">6 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 weeks</t>
   </si>
   <si>
     <t xml:space="preserve">Preferable Vaccine</t>
@@ -472,72 +469,66 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -545,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -553,122 +544,107 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -728,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -737,13 +713,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
@@ -777,72 +753,66 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -858,122 +828,107 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -981,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -989,122 +944,107 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
